--- a/logica_combinatoria_Tablas.xlsx
+++ b/logica_combinatoria_Tablas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRR79\Documents\P1-logica-combinatoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4706B46E-2CDC-4FC8-8D27-1A15FE1A2D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43AB607-C890-450D-9699-FB8273E198FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="deco" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,8 +36,40 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>A</t>
   </si>
@@ -87,21 +119,12 @@
     <t>='A '(B⊕ C) + A (B⊕C)</t>
   </si>
   <si>
-    <t>siendo: (B⊕C) = D</t>
-  </si>
-  <si>
-    <t>='A 'D + A D</t>
-  </si>
-  <si>
     <t>='AC + B 'C</t>
   </si>
   <si>
     <t>='C</t>
   </si>
   <si>
-    <t>= '(A⊕D)</t>
-  </si>
-  <si>
     <t>= '(A⊕(B⊕ C))</t>
   </si>
   <si>
@@ -162,9 +185,6 @@
     <t>sn74hc86n</t>
   </si>
   <si>
-    <t xml:space="preserve">cambiar a ttl </t>
-  </si>
-  <si>
     <t>Gate</t>
   </si>
   <si>
@@ -190,6 +210,30 @@
   </si>
   <si>
     <t>Exceso 3 Cir</t>
+  </si>
+  <si>
+    <t>Decodificador.</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">= AB'C+ A'B'C + ABC +A'BC </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>c/ab</t>
+  </si>
+  <si>
+    <t>='AB + A 'B</t>
+  </si>
+  <si>
+    <t>= A XOR B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sn74hc08n </t>
   </si>
 </sst>
 </file>
@@ -198,7 +242,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00"/>
-    <numFmt numFmtId="171" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -265,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +367,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -510,16 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -567,24 +620,62 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,9 +685,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF99"/>
       <color rgb="FF99FFCC"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FF99CCFF"/>
     </mruColors>
   </colors>
@@ -613,6 +704,49 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>524127</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>586748</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77FE0093-C5C6-D699-FCD3-0AC0B0FBE222}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="38051" b="66257"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8451548" y="13327945"/>
+          <a:ext cx="3721430" cy="1438325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -713,8 +847,73 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1034,164 +1233,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="38">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39">
-        <v>0</v>
-      </c>
-      <c r="C2" s="38">
-        <v>0</v>
-      </c>
-      <c r="D2" s="38">
-        <v>0</v>
-      </c>
-      <c r="E2" s="39">
+      <c r="A2" s="32">
+        <v>0</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0</v>
+      </c>
+      <c r="E2" s="33">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="38">
-        <v>1</v>
-      </c>
-      <c r="B3" s="39">
-        <v>1</v>
-      </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38">
-        <v>1</v>
-      </c>
-      <c r="E3" s="38">
+      <c r="A3" s="32">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33">
+        <v>1</v>
+      </c>
+      <c r="D3" s="32">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="38">
+      <c r="A4" s="32">
         <v>2</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="33">
         <v>10</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="33">
         <v>11</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="32">
         <v>3</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="32">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="38">
+      <c r="A5" s="32">
         <v>3</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="33">
         <v>11</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="33">
         <v>10</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="32">
         <v>2</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="32">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="38">
+      <c r="A6" s="32">
         <v>4</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="32">
         <v>100</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="32">
         <v>110</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="32">
         <v>6</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="32">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="38">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="32">
         <v>101</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="32">
         <v>111</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="32">
         <v>7</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="38">
+      <c r="A8" s="32">
         <v>6</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="32">
         <v>110</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="32">
         <v>101</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="32">
         <v>5</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="38">
+      <c r="A9" s="32">
         <v>7</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="32">
         <v>111</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="32">
         <v>100</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="32">
         <v>4</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="33">
         <v>10</v>
       </c>
     </row>
@@ -1202,219 +1401,219 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="17" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21">
-        <v>0</v>
-      </c>
-      <c r="B16" s="18">
-        <v>0</v>
-      </c>
-      <c r="C16" s="18">
-        <v>0</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18">
+      <c r="A16" s="18">
+        <v>0</v>
+      </c>
+      <c r="B16" s="53">
+        <v>0</v>
+      </c>
+      <c r="C16" s="53">
+        <v>0</v>
+      </c>
+      <c r="D16" s="53">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="21">
-        <v>1</v>
-      </c>
-      <c r="B17" s="18">
-        <v>0</v>
-      </c>
-      <c r="C17" s="18">
-        <v>0</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1</v>
-      </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53">
+        <v>0</v>
+      </c>
+      <c r="C17" s="53">
+        <v>0</v>
+      </c>
+      <c r="D17" s="53">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>2</v>
       </c>
-      <c r="B18" s="18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
+      <c r="B18" s="53">
+        <v>0</v>
+      </c>
+      <c r="C18" s="53">
+        <v>1</v>
+      </c>
+      <c r="D18" s="53">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>3</v>
       </c>
-      <c r="B19" s="18">
-        <v>0</v>
-      </c>
-      <c r="C19" s="18">
-        <v>1</v>
-      </c>
-      <c r="D19" s="18">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18">
+      <c r="B19" s="53">
+        <v>0</v>
+      </c>
+      <c r="C19" s="53">
+        <v>1</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>4</v>
       </c>
-      <c r="B20" s="18">
-        <v>1</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18">
+      <c r="B20" s="53">
+        <v>1</v>
+      </c>
+      <c r="C20" s="53">
+        <v>1</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>5</v>
       </c>
-      <c r="B21" s="18">
-        <v>1</v>
-      </c>
-      <c r="C21" s="18">
-        <v>0</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
+      <c r="B21" s="53">
+        <v>1</v>
+      </c>
+      <c r="C21" s="53">
+        <v>1</v>
+      </c>
+      <c r="D21" s="53">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>6</v>
       </c>
-      <c r="B22" s="18">
-        <v>1</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
+      <c r="B22" s="53">
+        <v>1</v>
+      </c>
+      <c r="C22" s="53">
+        <v>0</v>
+      </c>
+      <c r="D22" s="53">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>7</v>
       </c>
-      <c r="B23" s="18">
-        <v>1</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" s="18">
-        <v>1</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
+      <c r="B23" s="53">
+        <v>1</v>
+      </c>
+      <c r="C23" s="53">
+        <v>0</v>
+      </c>
+      <c r="D23" s="53">
+        <v>0</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1434,13 +1633,13 @@
       <c r="F28" s="6">
         <v>10</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="36"/>
+      <c r="J28" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B29" s="8">
@@ -1459,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>25</v>
+      <c r="L29" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1490,14 +1689,14 @@
       <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="J30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L30" s="15"/>
-      <c r="M30" s="16"/>
+      <c r="J30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="47"/>
+      <c r="M30" s="48"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
@@ -1512,7 +1711,7 @@
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="30" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1532,38 +1731,38 @@
       <c r="F34" s="6">
         <v>10</v>
       </c>
-      <c r="H34" s="35" t="s">
+      <c r="H34" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="36"/>
+      <c r="J34" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" s="50"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B35" s="8">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="2">
+      <c r="C35" s="38">
+        <v>1</v>
+      </c>
+      <c r="D35" s="38">
+        <v>1</v>
+      </c>
+      <c r="E35" s="38">
+        <v>1</v>
+      </c>
+      <c r="F35" s="39">
         <v>1</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1584,7 +1783,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1604,46 +1803,46 @@
       <c r="F40" s="6">
         <v>10</v>
       </c>
-      <c r="H40" s="35" t="s">
+      <c r="H40" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="37"/>
+      <c r="L40" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="51"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B41" s="8">
         <v>0</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="38">
         <v>1</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="38">
         <v>1</v>
       </c>
       <c r="F41" s="2">
         <v>0</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="L41" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="N41" s="22" t="s">
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="L41" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O41" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="O41" s="23" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1653,13 +1852,13 @@
       <c r="C42" s="3">
         <v>0</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="40">
         <v>1</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="41">
         <v>1</v>
       </c>
       <c r="H42" s="12" t="s">
@@ -1672,98 +1871,773 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H45" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H46" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="H47" s="12" t="s">
+      <c r="H44" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C52" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C53" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="22">
+        <v>4</v>
+      </c>
+      <c r="F53" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C54" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="24">
+        <v>2</v>
+      </c>
+      <c r="F54" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C55" s="26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C52" s="24" t="s">
+      <c r="D55" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="26">
+        <v>1</v>
+      </c>
+      <c r="F55" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C56" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="28">
+        <v>3</v>
+      </c>
+      <c r="F56" s="28">
+        <v>1</v>
+      </c>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+    </row>
+    <row r="59" spans="2:13" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H59"/>
+      <c r="I59"/>
+    </row>
+    <row r="60" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" s="15"/>
+    </row>
+    <row r="62" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I62" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I63" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="C64" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="24" t="s">
+      <c r="D64" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="E64" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C53" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="25">
+      <c r="F64" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" s="18">
+        <v>2</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M64" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="32">
+        <v>0</v>
+      </c>
+      <c r="C65" s="33">
+        <v>0</v>
+      </c>
+      <c r="D65" s="33">
+        <v>0</v>
+      </c>
+      <c r="E65" s="32">
+        <v>0</v>
+      </c>
+      <c r="F65" s="32">
+        <v>0</v>
+      </c>
+      <c r="I65" s="18">
+        <v>3</v>
+      </c>
+      <c r="J65" s="15">
+        <v>0</v>
+      </c>
+      <c r="K65" s="15">
+        <v>0</v>
+      </c>
+      <c r="L65" s="15">
+        <v>0</v>
+      </c>
+      <c r="M65" s="32">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>1</v>
+      </c>
+      <c r="R65" s="5">
+        <v>11</v>
+      </c>
+      <c r="S65" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="32">
+        <v>1</v>
+      </c>
+      <c r="C66" s="33">
+        <v>1</v>
+      </c>
+      <c r="D66" s="33">
+        <v>1</v>
+      </c>
+      <c r="E66" s="32">
+        <v>1</v>
+      </c>
+      <c r="F66" s="32">
+        <v>0</v>
+      </c>
+      <c r="I66" s="18">
         <v>4</v>
       </c>
-      <c r="F53" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C54" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E54" s="27">
+      <c r="J66" s="15">
+        <v>0</v>
+      </c>
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
+        <v>1</v>
+      </c>
+      <c r="M66" s="32">
+        <v>0</v>
+      </c>
+      <c r="O66" s="8">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" s="38">
+        <v>1</v>
+      </c>
+      <c r="S66" s="39">
+        <v>1</v>
+      </c>
+      <c r="U66" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="36">
         <v>2</v>
       </c>
-      <c r="F54" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C55" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="29">
-        <v>1</v>
-      </c>
-      <c r="F55" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C56" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="31">
+      <c r="C67" s="37">
+        <v>10</v>
+      </c>
+      <c r="D67" s="37">
+        <v>11</v>
+      </c>
+      <c r="E67" s="36">
+        <v>3</v>
+      </c>
+      <c r="F67" s="36">
+        <v>1</v>
+      </c>
+      <c r="I67" s="18">
+        <v>5</v>
+      </c>
+      <c r="J67" s="43">
+        <v>0</v>
+      </c>
+      <c r="K67" s="43">
+        <v>1</v>
+      </c>
+      <c r="L67" s="43">
+        <v>1</v>
+      </c>
+      <c r="M67" s="42">
+        <v>1</v>
+      </c>
+      <c r="O67" s="9">
+        <v>1</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+      <c r="R67" s="40">
+        <v>1</v>
+      </c>
+      <c r="S67" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="36">
+        <v>3</v>
+      </c>
+      <c r="C68" s="37">
+        <v>11</v>
+      </c>
+      <c r="D68" s="37">
+        <v>10</v>
+      </c>
+      <c r="E68" s="36">
         <v>2</v>
       </c>
-      <c r="F56" s="31">
-        <v>1</v>
+      <c r="F68" s="36">
+        <v>1</v>
+      </c>
+      <c r="I68" s="18">
+        <v>6</v>
+      </c>
+      <c r="J68" s="43">
+        <v>0</v>
+      </c>
+      <c r="K68" s="43">
+        <v>1</v>
+      </c>
+      <c r="L68" s="43">
+        <v>0</v>
+      </c>
+      <c r="M68" s="42">
+        <v>1</v>
+      </c>
+      <c r="S68" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="32">
+        <v>4</v>
+      </c>
+      <c r="C69" s="32">
+        <v>100</v>
+      </c>
+      <c r="D69" s="32">
+        <v>110</v>
+      </c>
+      <c r="E69" s="32">
+        <v>6</v>
+      </c>
+      <c r="F69" s="32">
+        <v>0</v>
+      </c>
+      <c r="I69" s="18">
+        <v>7</v>
+      </c>
+      <c r="J69" s="15">
+        <v>1</v>
+      </c>
+      <c r="K69" s="15">
+        <v>1</v>
+      </c>
+      <c r="L69" s="15">
+        <v>0</v>
+      </c>
+      <c r="M69" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="32">
+        <v>5</v>
+      </c>
+      <c r="C70" s="32">
+        <v>101</v>
+      </c>
+      <c r="D70" s="32">
+        <v>111</v>
+      </c>
+      <c r="E70" s="32">
+        <v>7</v>
+      </c>
+      <c r="F70" s="32">
+        <v>0</v>
+      </c>
+      <c r="J70" s="15">
+        <v>1</v>
+      </c>
+      <c r="K70" s="15">
+        <v>1</v>
+      </c>
+      <c r="L70" s="15">
+        <v>1</v>
+      </c>
+      <c r="M70" s="32">
+        <v>0</v>
+      </c>
+      <c r="S70" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T70" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="36">
+        <v>6</v>
+      </c>
+      <c r="C71" s="36">
+        <v>110</v>
+      </c>
+      <c r="D71" s="36">
+        <v>101</v>
+      </c>
+      <c r="E71" s="36">
+        <v>5</v>
+      </c>
+      <c r="F71" s="36">
+        <v>1</v>
+      </c>
+      <c r="J71" s="43">
+        <v>1</v>
+      </c>
+      <c r="K71" s="43">
+        <v>0</v>
+      </c>
+      <c r="L71" s="43">
+        <v>1</v>
+      </c>
+      <c r="M71" s="42">
+        <v>1</v>
+      </c>
+      <c r="O71" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="36">
+        <v>7</v>
+      </c>
+      <c r="C72" s="36">
+        <v>111</v>
+      </c>
+      <c r="D72" s="36">
+        <v>100</v>
+      </c>
+      <c r="E72" s="36">
+        <v>4</v>
+      </c>
+      <c r="F72" s="36">
+        <v>1</v>
+      </c>
+      <c r="J72" s="43">
+        <v>1</v>
+      </c>
+      <c r="K72" s="43">
+        <v>0</v>
+      </c>
+      <c r="L72" s="43">
+        <v>0</v>
+      </c>
+      <c r="M72" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="76" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="15"/>
+      <c r="C76" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="18">
+        <v>0</v>
+      </c>
+      <c r="C77" s="15">
+        <v>0</v>
+      </c>
+      <c r="D77" s="15">
+        <v>0</v>
+      </c>
+      <c r="E77" s="15">
+        <v>0</v>
+      </c>
+      <c r="F77" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="18">
+        <v>1</v>
+      </c>
+      <c r="C78" s="15">
+        <v>0</v>
+      </c>
+      <c r="D78" s="15">
+        <v>0</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="18">
+        <v>2</v>
+      </c>
+      <c r="C79" s="15">
+        <v>0</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1</v>
+      </c>
+      <c r="E79" s="15">
+        <v>0</v>
+      </c>
+      <c r="F79" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="18">
+        <v>3</v>
+      </c>
+      <c r="C80" s="15">
+        <v>0</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1</v>
+      </c>
+      <c r="F80" s="36">
+        <v>1</v>
+      </c>
+      <c r="H80" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="18">
+        <v>4</v>
+      </c>
+      <c r="C81" s="15">
+        <v>1</v>
+      </c>
+      <c r="D81" s="15">
+        <v>0</v>
+      </c>
+      <c r="E81" s="15">
+        <v>0</v>
+      </c>
+      <c r="F81" s="32">
+        <v>0</v>
+      </c>
+      <c r="H81" s="33">
+        <v>0</v>
+      </c>
+      <c r="I81" s="32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="18">
+        <v>5</v>
+      </c>
+      <c r="C82" s="15">
+        <v>1</v>
+      </c>
+      <c r="D82" s="15">
+        <v>0</v>
+      </c>
+      <c r="E82" s="15">
+        <v>1</v>
+      </c>
+      <c r="F82" s="32">
+        <v>0</v>
+      </c>
+      <c r="H82" s="33">
+        <v>1</v>
+      </c>
+      <c r="I82" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="18">
+        <v>6</v>
+      </c>
+      <c r="C83" s="15">
+        <v>1</v>
+      </c>
+      <c r="D83" s="15">
+        <v>1</v>
+      </c>
+      <c r="E83" s="15">
+        <v>0</v>
+      </c>
+      <c r="F83" s="36">
+        <v>1</v>
+      </c>
+      <c r="H83" s="33">
+        <v>11</v>
+      </c>
+      <c r="I83" s="42">
+        <v>3</v>
+      </c>
+      <c r="J83" t="s">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>2</v>
+      </c>
+      <c r="M83" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" s="18">
+        <v>7</v>
+      </c>
+      <c r="C84" s="15">
+        <v>1</v>
+      </c>
+      <c r="D84" s="15">
+        <v>1</v>
+      </c>
+      <c r="E84" s="15">
+        <v>1</v>
+      </c>
+      <c r="F84" s="36">
+        <v>1</v>
+      </c>
+      <c r="H84" s="33">
+        <v>10</v>
+      </c>
+      <c r="I84" s="42">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H85" s="32">
+        <v>110</v>
+      </c>
+      <c r="I85" s="42">
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H86" s="32">
+        <v>111</v>
+      </c>
+      <c r="I86" s="42">
+        <v>7</v>
+      </c>
+      <c r="J86" s="38">
+        <v>0</v>
+      </c>
+      <c r="K86" s="38">
+        <v>1</v>
+      </c>
+      <c r="L86" s="38">
+        <v>0</v>
+      </c>
+      <c r="M86" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H87" s="32">
+        <v>101</v>
+      </c>
+      <c r="I87" s="32">
+        <v>5</v>
+      </c>
+      <c r="J87" s="38">
+        <v>0</v>
+      </c>
+      <c r="K87" s="38">
+        <v>1</v>
+      </c>
+      <c r="L87" s="38">
+        <v>1</v>
+      </c>
+      <c r="M87" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H88" s="32">
+        <v>100</v>
+      </c>
+      <c r="I88" s="32">
+        <v>4</v>
+      </c>
+      <c r="J88" s="38">
+        <v>1</v>
+      </c>
+      <c r="K88" s="38">
+        <v>0</v>
+      </c>
+      <c r="L88" s="38">
+        <v>0</v>
+      </c>
+      <c r="M88" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J89" s="38">
+        <v>1</v>
+      </c>
+      <c r="K89" s="38">
+        <v>0</v>
+      </c>
+      <c r="L89" s="38">
+        <v>1</v>
+      </c>
+      <c r="M89" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1781,4 +2655,530 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67AD92-ED75-4DDC-A80D-FF82C2AC139A}">
+  <dimension ref="C8:M17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B5" zoomScale="130" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="8" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="15"/>
+      <c r="D9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>11</v>
+      </c>
+      <c r="M9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="38">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="40">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="44">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45">
+        <v>0</v>
+      </c>
+      <c r="E12" s="45">
+        <v>1</v>
+      </c>
+      <c r="F12" s="45">
+        <v>1</v>
+      </c>
+      <c r="G12" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="44">
+        <v>3</v>
+      </c>
+      <c r="D13" s="45">
+        <v>0</v>
+      </c>
+      <c r="E13" s="45">
+        <v>1</v>
+      </c>
+      <c r="F13" s="45">
+        <v>0</v>
+      </c>
+      <c r="G13" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="18">
+        <v>4</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="18">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="44">
+        <v>6</v>
+      </c>
+      <c r="D16" s="45">
+        <v>1</v>
+      </c>
+      <c r="E16" s="45">
+        <v>0</v>
+      </c>
+      <c r="F16" s="45">
+        <v>1</v>
+      </c>
+      <c r="G16" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17" s="44">
+        <v>7</v>
+      </c>
+      <c r="D17" s="45">
+        <v>1</v>
+      </c>
+      <c r="E17" s="45">
+        <v>0</v>
+      </c>
+      <c r="F17" s="45">
+        <v>0</v>
+      </c>
+      <c r="G17" s="45">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010094164D9811B23F4CA48C9254C527A113" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c98d7874cdf8ebf6adb2e4e309a14965">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5d40255-19c5-496d-8152-a83d27b620bd" xmlns:ns4="ca3c2452-e284-49b8-b0a6-baec811be044" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="195d962093fd1c8664e7783ab7efd8ad" ns3:_="" ns4:_="">
+    <xsd:import namespace="b5d40255-19c5-496d-8152-a83d27b620bd"/>
+    <xsd:import namespace="ca3c2452-e284-49b8-b0a6-baec811be044"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b5d40255-19c5-496d-8152-a83d27b620bd" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="23" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca3c2452-e284-49b8-b0a6-baec811be044" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="19" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b5d40255-19c5-496d-8152-a83d27b620bd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE96E676-8070-4258-B589-FFC8718B1BC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5d40255-19c5-496d-8152-a83d27b620bd"/>
+    <ds:schemaRef ds:uri="ca3c2452-e284-49b8-b0a6-baec811be044"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CB7A86-3DB2-49D4-BE07-2DC6D11FBB5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ca3c2452-e284-49b8-b0a6-baec811be044"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b5d40255-19c5-496d-8152-a83d27b620bd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DC9736B-9418-40FA-A971-0FE8339CEB0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/logica_combinatoria_Tablas.xlsx
+++ b/logica_combinatoria_Tablas.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MRR79\Documents\P1-logica-combinatoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43AB607-C890-450D-9699-FB8273E198FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FC0F48C-521E-433B-9A8C-E19583ACF5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="deco" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="deco" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -69,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="63">
   <si>
     <t>A</t>
   </si>
@@ -234,6 +236,30 @@
   </si>
   <si>
     <t xml:space="preserve">sn74hc08n </t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>xreves</t>
+  </si>
+  <si>
+    <t>seccion</t>
+  </si>
+  <si>
+    <t>pin 10</t>
+  </si>
+  <si>
+    <t>pin 11</t>
+  </si>
+  <si>
+    <t>pin 12</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
@@ -389,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -554,11 +580,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -653,6 +688,27 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,12 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,16 +799,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>354135</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114860</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>67164</xdr:rowOff>
+      <xdr:rowOff>168396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>6106</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>170962</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>374223</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14513</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -773,8 +823,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="696058"/>
-          <a:ext cx="3926010" cy="1898894"/>
+          <a:off x="8618338" y="3012092"/>
+          <a:ext cx="3903711" cy="1907566"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1235,13 +1285,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>42</v>
       </c>
@@ -1258,7 +1308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="32">
         <v>0</v>
       </c>
@@ -1275,7 +1325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="32">
         <v>1</v>
       </c>
@@ -1292,7 +1342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="32">
         <v>2</v>
       </c>
@@ -1309,7 +1359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="32">
         <v>3</v>
       </c>
@@ -1326,7 +1376,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="32">
         <v>4</v>
       </c>
@@ -1343,7 +1393,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <v>5</v>
       </c>
@@ -1360,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="32">
         <v>6</v>
       </c>
@@ -1377,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="32">
         <v>7</v>
       </c>
@@ -1394,21 +1444,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15"/>
-      <c r="B15" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="52" t="s">
+      <c r="B15" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="46" t="s">
         <v>2</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -1421,17 +1471,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18">
         <v>0</v>
       </c>
-      <c r="B16" s="53">
-        <v>0</v>
-      </c>
-      <c r="C16" s="53">
-        <v>0</v>
-      </c>
-      <c r="D16" s="53">
+      <c r="B16" s="47">
+        <v>0</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
         <v>0</v>
       </c>
       <c r="E16" s="15">
@@ -1442,19 +1492,22 @@
       </c>
       <c r="G16" s="15">
         <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18">
         <v>1</v>
       </c>
-      <c r="B17" s="53">
-        <v>0</v>
-      </c>
-      <c r="C17" s="53">
-        <v>0</v>
-      </c>
-      <c r="D17" s="53">
+      <c r="B17" s="47">
+        <v>0</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
         <v>1</v>
       </c>
       <c r="E17" s="15">
@@ -1465,19 +1518,22 @@
       </c>
       <c r="G17" s="15">
         <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18">
         <v>2</v>
       </c>
-      <c r="B18" s="53">
-        <v>0</v>
-      </c>
-      <c r="C18" s="53">
-        <v>1</v>
-      </c>
-      <c r="D18" s="53">
+      <c r="B18" s="47">
+        <v>0</v>
+      </c>
+      <c r="C18" s="47">
+        <v>1</v>
+      </c>
+      <c r="D18" s="47">
         <v>1</v>
       </c>
       <c r="E18" s="15">
@@ -1487,6 +1543,18 @@
         <v>0</v>
       </c>
       <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="48">
+        <v>1</v>
+      </c>
+      <c r="J18" s="48">
+        <v>1</v>
+      </c>
+      <c r="K18" s="48">
         <v>1</v>
       </c>
     </row>
@@ -1494,13 +1562,13 @@
       <c r="A19" s="18">
         <v>3</v>
       </c>
-      <c r="B19" s="53">
-        <v>0</v>
-      </c>
-      <c r="C19" s="53">
-        <v>1</v>
-      </c>
-      <c r="D19" s="53">
+      <c r="B19" s="47">
+        <v>0</v>
+      </c>
+      <c r="C19" s="47">
+        <v>1</v>
+      </c>
+      <c r="D19" s="47">
         <v>0</v>
       </c>
       <c r="E19" s="15">
@@ -1511,19 +1579,22 @@
       </c>
       <c r="G19" s="15">
         <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18">
         <v>4</v>
       </c>
-      <c r="B20" s="53">
-        <v>1</v>
-      </c>
-      <c r="C20" s="53">
-        <v>1</v>
-      </c>
-      <c r="D20" s="53">
+      <c r="B20" s="47">
+        <v>1</v>
+      </c>
+      <c r="C20" s="47">
+        <v>1</v>
+      </c>
+      <c r="D20" s="47">
         <v>0</v>
       </c>
       <c r="E20" s="15">
@@ -1534,19 +1605,22 @@
       </c>
       <c r="G20" s="15">
         <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18">
         <v>5</v>
       </c>
-      <c r="B21" s="53">
-        <v>1</v>
-      </c>
-      <c r="C21" s="53">
-        <v>1</v>
-      </c>
-      <c r="D21" s="53">
+      <c r="B21" s="47">
+        <v>1</v>
+      </c>
+      <c r="C21" s="47">
+        <v>1</v>
+      </c>
+      <c r="D21" s="47">
         <v>1</v>
       </c>
       <c r="E21" s="15">
@@ -1557,19 +1631,31 @@
       </c>
       <c r="G21" s="15">
         <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="48">
+        <v>1</v>
+      </c>
+      <c r="J21" s="48">
+        <v>1</v>
+      </c>
+      <c r="K21" s="48">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18">
         <v>6</v>
       </c>
-      <c r="B22" s="53">
-        <v>1</v>
-      </c>
-      <c r="C22" s="53">
-        <v>0</v>
-      </c>
-      <c r="D22" s="53">
+      <c r="B22" s="47">
+        <v>1</v>
+      </c>
+      <c r="C22" s="47">
+        <v>0</v>
+      </c>
+      <c r="D22" s="47">
         <v>1</v>
       </c>
       <c r="E22" s="15">
@@ -1580,19 +1666,22 @@
       </c>
       <c r="G22" s="15">
         <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18">
         <v>7</v>
       </c>
-      <c r="B23" s="53">
-        <v>1</v>
-      </c>
-      <c r="C23" s="53">
-        <v>0</v>
-      </c>
-      <c r="D23" s="53">
+      <c r="B23" s="47">
+        <v>1</v>
+      </c>
+      <c r="C23" s="47">
+        <v>0</v>
+      </c>
+      <c r="D23" s="47">
         <v>0</v>
       </c>
       <c r="E23" s="15">
@@ -1604,13 +1693,16 @@
       <c r="G23" s="15">
         <v>0</v>
       </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
     </row>
     <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="30" t="s">
@@ -1636,10 +1728,10 @@
       <c r="H28" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="50"/>
+      <c r="K28" s="57"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B29" s="8">
@@ -1666,10 +1758,10 @@
       <c r="K29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="48" t="s">
+      <c r="M29" s="55" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1695,8 +1787,8 @@
       <c r="K30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L30" s="47"/>
-      <c r="M30" s="48"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B31" s="1"/>
@@ -1734,10 +1826,10 @@
       <c r="H34" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="50"/>
+      <c r="K34" s="57"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B35" s="8">
@@ -1806,10 +1898,10 @@
       <c r="H40" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="51" t="s">
+      <c r="L40" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="M40" s="51"/>
+      <c r="M40" s="58"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B41" s="8">
@@ -1827,11 +1919,11 @@
       <c r="F41" s="2">
         <v>0</v>
       </c>
-      <c r="H41" s="46" t="s">
+      <c r="H41" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
       <c r="L41" s="19" t="s">
         <v>29</v>
       </c>
@@ -2658,11 +2750,358 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3AB901-A249-4E01-9C77-28278758AC46}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="15"/>
+      <c r="B1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18">
+        <v>0</v>
+      </c>
+      <c r="B2" s="47">
+        <v>0</v>
+      </c>
+      <c r="C2" s="47">
+        <v>0</v>
+      </c>
+      <c r="D2" s="47">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>1</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47">
+        <v>0</v>
+      </c>
+      <c r="D3" s="47">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="18">
+        <v>2</v>
+      </c>
+      <c r="B4" s="47">
+        <v>0</v>
+      </c>
+      <c r="C4" s="47">
+        <v>1</v>
+      </c>
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="47">
+        <v>0</v>
+      </c>
+      <c r="C5" s="47">
+        <v>1</v>
+      </c>
+      <c r="D5" s="47">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="47">
+        <v>1</v>
+      </c>
+      <c r="C6" s="47">
+        <v>1</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="47">
+        <v>1</v>
+      </c>
+      <c r="C7" s="47">
+        <v>1</v>
+      </c>
+      <c r="D7" s="47">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="47">
+        <v>1</v>
+      </c>
+      <c r="C8" s="47">
+        <v>0</v>
+      </c>
+      <c r="D8" s="47">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="47">
+        <v>1</v>
+      </c>
+      <c r="C9" s="47">
+        <v>0</v>
+      </c>
+      <c r="D9" s="47">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J18" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" s="50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J19" s="51">
+        <v>0</v>
+      </c>
+      <c r="K19" s="52">
+        <v>0</v>
+      </c>
+      <c r="L19" s="52">
+        <v>0</v>
+      </c>
+      <c r="M19" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J20" s="51">
+        <v>1</v>
+      </c>
+      <c r="K20" s="52">
+        <v>0</v>
+      </c>
+      <c r="L20" s="52">
+        <v>0</v>
+      </c>
+      <c r="M20" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J21" s="51">
+        <v>2</v>
+      </c>
+      <c r="K21" s="52">
+        <v>0</v>
+      </c>
+      <c r="L21" s="52">
+        <v>1</v>
+      </c>
+      <c r="M21" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J22" s="51">
+        <v>3</v>
+      </c>
+      <c r="K22" s="52">
+        <v>0</v>
+      </c>
+      <c r="L22" s="52">
+        <v>1</v>
+      </c>
+      <c r="M22" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J23" s="51">
+        <v>4</v>
+      </c>
+      <c r="K23" s="52">
+        <v>1</v>
+      </c>
+      <c r="L23" s="52">
+        <v>1</v>
+      </c>
+      <c r="M23" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J24" s="51">
+        <v>5</v>
+      </c>
+      <c r="K24" s="52">
+        <v>1</v>
+      </c>
+      <c r="L24" s="52">
+        <v>1</v>
+      </c>
+      <c r="M24" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J25" s="51">
+        <v>6</v>
+      </c>
+      <c r="K25" s="52">
+        <v>1</v>
+      </c>
+      <c r="L25" s="52">
+        <v>0</v>
+      </c>
+      <c r="M25" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="10:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J26" s="51">
+        <v>7</v>
+      </c>
+      <c r="K26" s="52">
+        <v>1</v>
+      </c>
+      <c r="L26" s="52">
+        <v>0</v>
+      </c>
+      <c r="M26" s="52">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E67AD92-ED75-4DDC-A80D-FF82C2AC139A}">
-  <dimension ref="C8:M17"/>
+  <dimension ref="C8:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="130" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView topLeftCell="B20" zoomScale="85" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2853,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C17" s="44">
         <v>7</v>
       </c>
@@ -2867,6 +3306,136 @@
         <v>0</v>
       </c>
       <c r="G17" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E22" s="47">
+        <v>0</v>
+      </c>
+      <c r="F22" s="47">
+        <v>0</v>
+      </c>
+      <c r="G22" s="47">
+        <v>0</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="47">
+        <v>0</v>
+      </c>
+      <c r="F23" s="47">
+        <v>0</v>
+      </c>
+      <c r="G23" s="47">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E24" s="47">
+        <v>0</v>
+      </c>
+      <c r="F24" s="47">
+        <v>1</v>
+      </c>
+      <c r="G24" s="47">
+        <v>1</v>
+      </c>
+      <c r="H24" s="45">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E25" s="47">
+        <v>0</v>
+      </c>
+      <c r="F25" s="47">
+        <v>1</v>
+      </c>
+      <c r="G25" s="47">
+        <v>0</v>
+      </c>
+      <c r="H25" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E26" s="47">
+        <v>1</v>
+      </c>
+      <c r="F26" s="47">
+        <v>1</v>
+      </c>
+      <c r="G26" s="47">
+        <v>0</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="47">
+        <v>1</v>
+      </c>
+      <c r="F27" s="47">
+        <v>1</v>
+      </c>
+      <c r="G27" s="47">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E28" s="47">
+        <v>1</v>
+      </c>
+      <c r="F28" s="47">
+        <v>0</v>
+      </c>
+      <c r="G28" s="47">
+        <v>1</v>
+      </c>
+      <c r="H28" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="47">
+        <v>1</v>
+      </c>
+      <c r="F29" s="47">
+        <v>0</v>
+      </c>
+      <c r="G29" s="47">
+        <v>0</v>
+      </c>
+      <c r="H29" s="45">
         <v>1</v>
       </c>
     </row>
@@ -2876,6 +3445,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010094164D9811B23F4CA48C9254C527A113" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c98d7874cdf8ebf6adb2e4e309a14965">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b5d40255-19c5-496d-8152-a83d27b620bd" xmlns:ns4="ca3c2452-e284-49b8-b0a6-baec811be044" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="195d962093fd1c8664e7783ab7efd8ad" ns3:_="" ns4:_="">
     <xsd:import namespace="b5d40255-19c5-496d-8152-a83d27b620bd"/>
@@ -3122,7 +3700,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="b5d40255-19c5-496d-8152-a83d27b620bd" xsi:nil="true"/>
@@ -3130,16 +3708,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DC9736B-9418-40FA-A971-0FE8339CEB0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE96E676-8070-4258-B589-FFC8718B1BC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3158,7 +3735,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CB7A86-3DB2-49D4-BE07-2DC6D11FBB5D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3173,12 +3750,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DC9736B-9418-40FA-A971-0FE8339CEB0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>